--- a/Physics_departments_formatted.xlsx
+++ b/Physics_departments_formatted.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="514">
   <si>
     <t xml:space="preserve">University</t>
   </si>
@@ -1412,6 +1412,138 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.gc.cuny.edu/Page-Elements/Academics-Research-Centers-Initiatives/Doctoral-Programs/Physics/Faculty?page=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boston_College</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bc.edu/bc-web/schools/mcas/departments/physics/people.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clark_University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.clarku.edu/departments/physics/people/faculty/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorado_School_of_Mines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://physics.mines.edu/faculty-and-staff/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgetown_University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://physics.georgetown.edu/people/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johns_Hopkins_University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://physics-astronomy.jhu.edu/people/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lehigh_University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://physics.cas.lehigh.edu/professors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New_York_University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://as.nyu.edu/physics/people/faculty.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohio_State_University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://physics.osu.edu/people-mobile?field_appointment_target_id[23]=23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pennsylvania_State_University_University_Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://science.psu.edu/people?person_type=47&amp;department=16&amp;unit=All&amp;items_per_page=All </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princeton_University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phy.princeton.edu/people/faculty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rochester_Institute_of_Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.sas.rochester.edu/pas/people/faculty/index.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas_A&amp;M_University_College_Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://physics.tamu.edu/dir-search/?search_field=job_category&amp;value=faculty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University_of_Colorado_Colorado_Springs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://physics.uccs.edu/faculty-staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University_of_Dayton1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://udayton.edu/artssciences/academics/physics/facstaff/ft_fac.php </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University_of_Dayton2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://udayton.edu/artssciences/academics/physics/facstaff/ft_fac.php?page=1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University_of_Dayton3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://udayton.edu/artssciences/academics/physics/facstaff/ft_fac.php?page=2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University_of_Illinois_Urbana_Champaign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://physics.illinois.edu/people/directory/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University_of_North_Carolina_Chapel_Hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://physics.unc.edu/people-pages/faculty/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University_of_Texas_Austin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ph.utexas.edu/component/cobalt/category-items/1-directory/18-physics?Itemid=1264 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University_of_Wisconsin_Madison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.physics.wisc.edu/people/faculty/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wesleyan_University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.wesleyan.edu/physics/people/index.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">William_&amp;_Mary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.wm.edu/as/physics/people/fulltimefaculty/index.php </t>
   </si>
   <si>
     <t xml:space="preserve">Bowling_Green_State_University</t>
@@ -1531,7 +1663,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1541,6 +1673,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1562,16 +1698,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C239"/>
+  <dimension ref="A1:C261"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C238" activeCellId="0" sqref="C238"/>
+      <selection pane="topLeft" activeCell="B259" activeCellId="0" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="83.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="65.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
@@ -4132,13 +4268,19 @@
       <c r="A233" s="0" t="s">
         <v>464</v>
       </c>
+      <c r="B233" s="0" t="s">
+        <v>465</v>
+      </c>
       <c r="C233" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>467</v>
       </c>
       <c r="C234" s="0" t="n">
         <v>0</v>
@@ -4146,7 +4288,10 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="C235" s="0" t="n">
         <v>0</v>
@@ -4154,7 +4299,10 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>467</v>
+        <v>470</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>471</v>
       </c>
       <c r="C236" s="0" t="n">
         <v>0</v>
@@ -4162,7 +4310,10 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>468</v>
+        <v>472</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>473</v>
       </c>
       <c r="C237" s="0" t="n">
         <v>0</v>
@@ -4170,31 +4321,245 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>469</v>
+        <v>474</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>475</v>
       </c>
       <c r="C238" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="C239" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="C240" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="C241" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="C242" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="C243" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="C244" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="C245" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="C246" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C247" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="C248" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="C249" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="C250" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="C251" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="C252" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="C253" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="C254" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="C255" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="C256" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="C257" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="C258" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="C259" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C260" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://web.mit.edu/physics/people/faculty/index.html"/>
@@ -4428,6 +4793,28 @@
     <hyperlink ref="B230" r:id="rId229" display="https://www.famu.edu/index.cfm?DepartmentofPhysics&amp;Faculty"/>
     <hyperlink ref="B231" r:id="rId230" display="https://www.gc.cuny.edu/Page-Elements/Academics-Research-Centers-Initiatives/Doctoral-Programs/Physics/Faculty?page=2"/>
     <hyperlink ref="B232" r:id="rId231" display="https://www.gc.cuny.edu/Page-Elements/Academics-Research-Centers-Initiatives/Doctoral-Programs/Physics/Faculty?page=3"/>
+    <hyperlink ref="B233" r:id="rId232" display="https://www.bc.edu/bc-web/schools/mcas/departments/physics/people.html"/>
+    <hyperlink ref="B234" r:id="rId233" display="https://www.clarku.edu/departments/physics/people/faculty/"/>
+    <hyperlink ref="B235" r:id="rId234" display="https://physics.mines.edu/faculty-and-staff/"/>
+    <hyperlink ref="B236" r:id="rId235" display="https://physics.georgetown.edu/people/"/>
+    <hyperlink ref="B237" r:id="rId236" display="https://physics-astronomy.jhu.edu/people/"/>
+    <hyperlink ref="B238" r:id="rId237" display="https://physics.cas.lehigh.edu/professors"/>
+    <hyperlink ref="B239" r:id="rId238" display="https://as.nyu.edu/physics/people/faculty.html"/>
+    <hyperlink ref="B240" r:id="rId239" display="https://physics.osu.edu/people-mobile?field_appointment_target_id[23]=23"/>
+    <hyperlink ref="B241" r:id="rId240" display="https://science.psu.edu/people?person_type=47&amp;department=16&amp;unit=All&amp;items_per_page=All"/>
+    <hyperlink ref="B242" r:id="rId241" display="https://phy.princeton.edu/people/faculty"/>
+    <hyperlink ref="B243" r:id="rId242" display="http://www.sas.rochester.edu/pas/people/faculty/index.html"/>
+    <hyperlink ref="B244" r:id="rId243" display="https://physics.tamu.edu/dir-search/?search_field=job_category&amp;value=faculty"/>
+    <hyperlink ref="B245" r:id="rId244" display="https://physics.uccs.edu/faculty-staff"/>
+    <hyperlink ref="B246" r:id="rId245" display="https://udayton.edu/artssciences/academics/physics/facstaff/ft_fac.php"/>
+    <hyperlink ref="B247" r:id="rId246" display="https://udayton.edu/artssciences/academics/physics/facstaff/ft_fac.php?page=1"/>
+    <hyperlink ref="B248" r:id="rId247" display="https://udayton.edu/artssciences/academics/physics/facstaff/ft_fac.php?page=2"/>
+    <hyperlink ref="B249" r:id="rId248" display="https://physics.illinois.edu/people/directory/"/>
+    <hyperlink ref="B250" r:id="rId249" display="https://physics.unc.edu/people-pages/faculty/"/>
+    <hyperlink ref="B251" r:id="rId250" display="https://ph.utexas.edu/component/cobalt/category-items/1-directory/18-physics?Itemid=1264"/>
+    <hyperlink ref="B252" r:id="rId251" display="https://www.physics.wisc.edu/people/faculty/"/>
+    <hyperlink ref="B253" r:id="rId252" display="https://www.wesleyan.edu/physics/people/index.html"/>
+    <hyperlink ref="B254" r:id="rId253" display="https://www.wm.edu/as/physics/people/fulltimefaculty/index.php"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
